--- a/PMOInformatica Plantilla de Sprint Backlog.xlsx
+++ b/PMOInformatica Plantilla de Sprint Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\USFX\CIENCIAS DE LA COMPUTACION\6to semestre\Arquitectura de software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Arquitectura de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BACEE18-7F93-474B-B860-A078C77C2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1B4751-5838-4BD0-97C2-758E6DEAEF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +276,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -391,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -433,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +789,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,133 +1170,141 @@
       <c r="G6" s="5">
         <v>0.67</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>0.2</v>
+      </c>
       <c r="I6" s="9">
         <f>G6-H6</f>
-        <v>0.67</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="18">
+        <v>0.2</v>
+      </c>
       <c r="L6" s="9">
         <f t="shared" ref="L6:L17" si="0">I6-K6</f>
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="9">
+        <v>0.2</v>
+      </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6:O17" si="1">L6-N6</f>
-        <v>0.67</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="9">
+        <v>0.2</v>
+      </c>
       <c r="R6" s="9">
         <f t="shared" ref="R6:R17" si="2">O6-Q6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9">
         <f t="shared" ref="U6:U17" si="3">R6-T6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9">
         <f t="shared" ref="X6:X17" si="4">U6-W6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9">
         <f t="shared" ref="AA6:AA17" si="5">X6-Z6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AB6" s="11"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9">
         <f t="shared" ref="AD6:AD17" si="6">AA6-AC6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9">
         <f t="shared" ref="AG6:AG17" si="7">AD6-AF6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AH6" s="11"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9">
         <f t="shared" ref="AJ6:AJ17" si="8">AG6-AI6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AK6" s="11"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9">
         <f t="shared" ref="AM6:AM17" si="9">AJ6-AL6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AN6" s="11"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9">
         <f t="shared" ref="AP6:AP17" si="10">AM6-AO6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AQ6" s="11"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9">
         <f t="shared" ref="AS6:AS17" si="11">AP6-AR6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AT6" s="11"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9">
         <f t="shared" ref="AV6:AV17" si="12">AS6-AU6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AW6" s="11"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9">
         <f t="shared" ref="AY6:AY17" si="13">AV6-AX6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ6" s="11"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9">
         <f t="shared" ref="BB6:BB17" si="14">AY6-BA6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BC6" s="11"/>
       <c r="BD6" s="9"/>
       <c r="BE6" s="9">
         <f t="shared" ref="BE6:BE17" si="15">BB6-BD6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BF6" s="11"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9">
         <f t="shared" ref="BH6:BH17" si="16">BE6-BG6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="9"/>
       <c r="BK6" s="9">
         <f t="shared" ref="BK6:BK17" si="17">BH6-BJ6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BL6" s="11"/>
       <c r="BM6" s="9"/>
       <c r="BN6" s="9">
         <f>BK6-BM6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BO6" s="11"/>
       <c r="BP6" s="12">
         <f>H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6+BA6+BD6+BG6+BJ6+BM6</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BQ6" s="12">
         <f>G6-BP6</f>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7" spans="2:69" ht="57.6" x14ac:dyDescent="0.3">
@@ -1303,133 +1322,141 @@
       <c r="G7" s="5">
         <v>0.83</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <v>0.2</v>
+      </c>
       <c r="I7" s="9">
         <f t="shared" ref="I7:I17" si="18">G7-H7</f>
-        <v>0.83</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>0.2</v>
+      </c>
       <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.42999999999999988</v>
       </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="9">
+        <v>0.2</v>
+      </c>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>0.83</v>
+        <v>0.22999999999999987</v>
       </c>
       <c r="P7" s="11"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="9">
+        <v>0.2</v>
+      </c>
       <c r="R7" s="9">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="S7" s="11"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9">
         <f t="shared" si="3"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9">
         <f t="shared" si="4"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9">
         <f t="shared" si="5"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9">
         <f t="shared" si="6"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AH7" s="11"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9">
         <f t="shared" si="8"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AK7" s="11"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9">
         <f t="shared" si="9"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AN7" s="11"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9">
         <f t="shared" si="10"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9">
         <f t="shared" si="11"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9">
         <f t="shared" si="12"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AW7" s="11"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9">
         <f t="shared" si="13"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AZ7" s="11"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9">
         <f t="shared" si="14"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BC7" s="11"/>
       <c r="BD7" s="9"/>
       <c r="BE7" s="9">
         <f t="shared" si="15"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BF7" s="11"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9">
         <f t="shared" si="16"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BI7" s="11"/>
       <c r="BJ7" s="9"/>
       <c r="BK7" s="9">
         <f t="shared" si="17"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BL7" s="11"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9">
         <f t="shared" ref="BN7:BN17" si="19">BK7-BM7</f>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BO7" s="11"/>
       <c r="BP7" s="12">
         <f t="shared" ref="BP7:BP17" si="20">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7+BA7+BD7+BG7+BJ7+BM7</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BQ7" s="12">
         <f t="shared" ref="BQ7:BQ17" si="21">G7-BP7</f>
-        <v>0.83</v>
+        <v>2.9999999999999916E-2</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1447,133 +1474,141 @@
       <c r="G8" s="5">
         <v>0.67</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="I8" s="9">
         <f t="shared" si="18"/>
-        <v>0.67</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="L8" s="9">
         <f t="shared" si="0"/>
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="M8" s="11"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
-        <v>0.67</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="R8" s="9">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9">
         <f t="shared" si="4"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9">
         <f t="shared" si="5"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AB8" s="11"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9">
         <f t="shared" si="6"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9">
         <f t="shared" si="7"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AH8" s="11"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9">
         <f t="shared" si="8"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AK8" s="11"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9">
         <f t="shared" si="9"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AN8" s="11"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9">
         <f t="shared" si="10"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AQ8" s="11"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9">
         <f t="shared" si="11"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AT8" s="11"/>
       <c r="AU8" s="9"/>
       <c r="AV8" s="9">
         <f t="shared" si="12"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AW8" s="11"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9">
         <f t="shared" si="13"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="9"/>
       <c r="BB8" s="9">
         <f t="shared" si="14"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BC8" s="11"/>
       <c r="BD8" s="9"/>
       <c r="BE8" s="9">
         <f t="shared" si="15"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BF8" s="11"/>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9">
         <f t="shared" si="16"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="9"/>
       <c r="BK8" s="9">
         <f t="shared" si="17"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BL8" s="11"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9">
         <f t="shared" si="19"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="BO8" s="11"/>
       <c r="BP8" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BQ8" s="12">
         <f t="shared" si="21"/>
-        <v>0.67</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="9" spans="2:69" ht="57.6" x14ac:dyDescent="0.3">
@@ -1591,133 +1626,141 @@
       <c r="G9" s="5">
         <v>0.83</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>0.2</v>
+      </c>
       <c r="I9" s="9">
         <f t="shared" si="18"/>
-        <v>0.83</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>0.2</v>
+      </c>
       <c r="L9" s="9">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.42999999999999988</v>
       </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="9">
+        <v>0.2</v>
+      </c>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
-        <v>0.83</v>
+        <v>0.22999999999999987</v>
       </c>
       <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="9">
+        <v>0.2</v>
+      </c>
       <c r="R9" s="9">
         <f t="shared" si="2"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="S9" s="11"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9">
         <f t="shared" si="3"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9">
         <f t="shared" si="4"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9">
         <f t="shared" si="5"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AB9" s="11"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9">
         <f t="shared" si="6"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9">
         <f t="shared" si="7"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AH9" s="11"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9">
         <f t="shared" si="8"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AK9" s="11"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9">
         <f t="shared" si="9"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AN9" s="11"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9">
         <f t="shared" si="10"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AQ9" s="11"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9">
         <f t="shared" si="11"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AT9" s="11"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9">
         <f t="shared" si="12"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AW9" s="11"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9">
         <f t="shared" si="13"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="AZ9" s="11"/>
       <c r="BA9" s="9"/>
       <c r="BB9" s="9">
         <f t="shared" si="14"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BC9" s="11"/>
       <c r="BD9" s="9"/>
       <c r="BE9" s="9">
         <f t="shared" si="15"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BF9" s="11"/>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9">
         <f t="shared" si="16"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BI9" s="11"/>
       <c r="BJ9" s="9"/>
       <c r="BK9" s="9">
         <f t="shared" si="17"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BL9" s="11"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9">
         <f t="shared" si="19"/>
-        <v>0.83</v>
+        <v>2.999999999999986E-2</v>
       </c>
       <c r="BO9" s="11"/>
       <c r="BP9" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BQ9" s="12">
         <f t="shared" si="21"/>
-        <v>0.83</v>
+        <v>2.9999999999999916E-2</v>
       </c>
     </row>
     <row r="10" spans="2:69" ht="57.6" x14ac:dyDescent="0.3">
@@ -2850,16 +2893,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2871,6 +2904,16 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
